--- a/装修预算表.xlsx
+++ b/装修预算表.xlsx
@@ -633,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -656,6 +656,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -663,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -711,6 +722,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,7 +1015,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1048,7 @@
       </c>
       <c r="B2" s="14">
         <f>SUM(B5,H5,N5,T5)/10000</f>
-        <v>19.924600000000002</v>
+        <v>20.924600000000002</v>
       </c>
       <c r="C2" s="16">
         <f>SUM(D5,J5,P5,V5)/10000</f>
@@ -1110,7 +1124,7 @@
       </c>
       <c r="B5" s="13">
         <f>SUM(B6:B102)</f>
-        <v>145492</v>
+        <v>155492</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13">
@@ -1864,6 +1878,9 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="18">
+        <v>10000</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
   </sheetData>

--- a/装修预算表.xlsx
+++ b/装修预算表.xlsx
@@ -633,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -656,17 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -674,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -722,9 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1034,7 @@
       </c>
       <c r="B2" s="14">
         <f>SUM(B5,H5,N5,T5)/10000</f>
-        <v>20.924600000000002</v>
+        <v>19.924600000000002</v>
       </c>
       <c r="C2" s="16">
         <f>SUM(D5,J5,P5,V5)/10000</f>
@@ -1123,12 +1109,12 @@
         <v>125</v>
       </c>
       <c r="B5" s="13">
-        <f>SUM(B6:B102)</f>
-        <v>155492</v>
+        <f>SUM(B6:B101)</f>
+        <v>145492</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13">
-        <f>SUM(D6:D102)</f>
+        <f>SUM(D6:D101)</f>
         <v>67800</v>
       </c>
       <c r="E5" s="13"/>
@@ -1137,12 +1123,12 @@
         <v>128</v>
       </c>
       <c r="H5" s="13">
-        <f>SUM(H6:H102)</f>
+        <f>SUM(H6:H101)</f>
         <v>25267</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
-        <f>SUM(J6:J102)</f>
+        <f>SUM(J6:J101)</f>
         <v>0</v>
       </c>
       <c r="K5" s="13"/>
@@ -1150,12 +1136,12 @@
         <v>129</v>
       </c>
       <c r="N5" s="13">
-        <f>SUM(N6:N102)</f>
+        <f>SUM(N6:N101)</f>
         <v>28100</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13">
-        <f>SUM(P6:P102)</f>
+        <f>SUM(P6:P101)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="13"/>
@@ -1163,12 +1149,12 @@
         <v>129</v>
       </c>
       <c r="T5" s="13">
-        <f>SUM(T6:T102)</f>
+        <f>SUM(T6:T101)</f>
         <v>387</v>
       </c>
       <c r="U5" s="13"/>
       <c r="V5" s="13">
-        <f>SUM(V6:V102)</f>
+        <f>SUM(V6:V101)</f>
         <v>0</v>
       </c>
       <c r="W5" s="13"/>
@@ -1876,12 +1862,6 @@
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="18">
-        <v>10000</v>
-      </c>
-      <c r="F32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/装修预算表.xlsx
+++ b/装修预算表.xlsx
@@ -11,6 +11,9 @@
     <sheet name="知乎推荐小物件" sheetId="4" r:id="rId2"/>
     <sheet name="装修意见" sheetId="9" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">预算与实际支出!$S$5:$W$5</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
   <si>
     <t>电视</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -568,6 +571,82 @@
   </si>
   <si>
     <t>挂烫机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒菜锅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在岑超市买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将来有需要再买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住以后等促销买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室毛巾架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸筒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单杆毛巾架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶刷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂衣钩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿衣镜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房挂杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂衣杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微波炉支架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤箱支架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和装修一起搞定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +685,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +716,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,13 +767,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -693,9 +812,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,15 +825,208 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="40% - 着色 5" xfId="3" builtinId="47"/>
     <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
+    <cellStyle name="60% - 着色 5" xfId="4" builtinId="48"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 5" xfId="2" builtinId="45"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EA9DB"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EA9DB"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EA9DB"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EA9DB"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -998,48 +1307,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.125" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="24.75" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
+    <col min="9" max="9" width="22.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="6.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="2.25" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" customWidth="1"/>
+    <col min="17" max="17" width="5.375" customWidth="1"/>
+    <col min="18" max="18" width="2.125" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" customWidth="1"/>
+    <col min="23" max="23" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>132</v>
       </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <f>SUM(B5,H5,N5,T5)/10000</f>
-        <v>19.924600000000002</v>
-      </c>
-      <c r="C2" s="16">
+        <v>20.0246</v>
+      </c>
+      <c r="C2" s="15">
         <f>SUM(D5,J5,P5,V5)/10000</f>
         <v>6.78</v>
       </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="25"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1105,62 +1444,62 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="13">
-        <f>SUM(B6:B101)</f>
+      <c r="B5" s="12">
+        <f>SUM(B6:B102)</f>
         <v>145492</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
-        <f>SUM(D6:D101)</f>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
+        <f>SUM(D6:D102)</f>
         <v>67800</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="13">
-        <f>SUM(H6:H101)</f>
+      <c r="H5" s="12">
+        <f>SUM(H6:H102)</f>
         <v>25267</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13">
-        <f>SUM(J6:J101)</f>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12">
+        <f>SUM(J6:J102)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="M5" s="12" t="s">
+      <c r="K5" s="12"/>
+      <c r="M5" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="N5" s="13">
-        <f>SUM(N6:N101)</f>
-        <v>28100</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13">
-        <f>SUM(P6:P101)</f>
+      <c r="N5" s="12">
+        <f>SUM(N6:N102)</f>
+        <v>29100</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12">
+        <f>SUM(P6:P102)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="S5" s="12" t="s">
+      <c r="Q5" s="12"/>
+      <c r="S5" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="T5" s="13">
-        <f>SUM(T6:T101)</f>
+      <c r="T5" s="12">
+        <f>SUM(T6:T102)</f>
         <v>387</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13">
-        <f>SUM(V6:V101)</f>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12">
+        <f>SUM(V6:V102)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="13"/>
+      <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="6">
@@ -1172,29 +1511,29 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="7" t="s">
-        <v>1</v>
+      <c r="G6" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="H6" s="7">
-        <v>1999</v>
+        <v>1499</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>104</v>
+      <c r="M6" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="16" t="s">
         <v>123</v>
       </c>
       <c r="T6" s="7">
@@ -1205,7 +1544,7 @@
       <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="6">
@@ -1217,29 +1556,29 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="7" t="s">
-        <v>74</v>
+      <c r="G7" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="H7" s="7">
         <v>1999</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>3</v>
+      <c r="M7" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="N7" s="7">
-        <v>2000</v>
+        <v>39</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="16" t="s">
         <v>134</v>
       </c>
       <c r="T7" s="7">
@@ -1252,7 +1591,7 @@
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="6">
@@ -1262,40 +1601,38 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
-        <v>75</v>
+      <c r="G8" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="H8" s="7">
         <v>1999</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>105</v>
+      <c r="M8" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="N8" s="7">
-        <v>39</v>
+        <v>799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T8" s="7">
-        <v>188</v>
-      </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="S8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="6">
@@ -1305,31 +1642,38 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="7" t="s">
-        <v>76</v>
+      <c r="G9" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="H9" s="7">
-        <v>1499</v>
+        <v>1999</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="M9" s="7" t="s">
-        <v>106</v>
+      <c r="M9" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="N9" s="7">
-        <v>799</v>
+        <v>118</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
+      <c r="S9" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="6">
@@ -1341,7 +1685,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="17" t="s">
         <v>77</v>
       </c>
       <c r="H10" s="7">
@@ -1352,18 +1696,25 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>103</v>
+      <c r="M10" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="N10" s="7">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
+      <c r="S10" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="6">
@@ -1375,29 +1726,36 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="7" t="s">
-        <v>78</v>
+      <c r="G11" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="M11" s="7" t="s">
-        <v>114</v>
+      <c r="M11" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="N11" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+        <v>2000</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="6">
@@ -1407,32 +1765,36 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
+      <c r="G12" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="H12" s="7">
+        <v>4999</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="6">
         <v>1000</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="M12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="7">
-        <f>299*2</f>
-        <v>598</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="S12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="6">
@@ -1442,29 +1804,34 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
+      <c r="G13" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="H13" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>599</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="M13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1849</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="M13" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="S13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="6">
@@ -1476,31 +1843,38 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
+      <c r="G14" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>999</v>
+        <v>1699</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="M14" s="7" t="s">
-        <v>115</v>
+      <c r="M14" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>1599</v>
+        <v>6000</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
+      <c r="S14" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="6">
@@ -1510,32 +1884,36 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="7" t="s">
-        <v>82</v>
+      <c r="G15" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>199</v>
+        <v>2299</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="M15" s="7" t="s">
-        <v>109</v>
+      <c r="M15" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="N15" s="7">
-        <f>299*2</f>
-        <v>598</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>118</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
+      <c r="S15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="6">
@@ -1547,31 +1925,34 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
+      <c r="G16" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="H16" s="7">
-        <v>299</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="M16" s="7" t="s">
-        <v>112</v>
+      <c r="M16" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="N16" s="7">
-        <v>118</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="S16" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="6">
@@ -1581,29 +1962,36 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
+      <c r="G17" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="H17" s="7">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="M17" s="7" t="s">
-        <v>124</v>
+      <c r="M17" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="N17" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O17" s="7"/>
+        <v>1849</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="S17" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="6">
@@ -1613,29 +2001,38 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="7" t="s">
-        <v>94</v>
+      <c r="G18" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="H18" s="7">
-        <v>200</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="M18" s="17" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="N18" s="7">
-        <v>2000</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="S18" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="6">
@@ -1645,20 +2042,41 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="7">
-        <v>4999</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="M19" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="7">
+        <f>299*2</f>
+        <v>598</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="S19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="T19" s="7">
+        <v>188</v>
+      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="6">
@@ -1668,20 +2086,32 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
+      <c r="G20" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="H20" s="7">
-        <v>599</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>1000</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
       <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="M20" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="7">
+        <f>299*2</f>
+        <v>598</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="6">
@@ -1691,20 +2121,20 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="7" t="s">
-        <v>97</v>
+      <c r="G21" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="H21" s="7">
-        <v>1699</v>
+        <v>199</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="6">
@@ -1714,20 +2144,20 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="7" t="s">
-        <v>2</v>
+      <c r="G22" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="H22" s="7">
-        <v>2299</v>
+        <v>299</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="6">
@@ -1739,20 +2169,20 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="7" t="s">
-        <v>98</v>
+      <c r="G23" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="H23" s="7">
+        <v>200</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="6">
@@ -1762,18 +2192,20 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="7" t="s">
-        <v>101</v>
+      <c r="G24" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="H24" s="7">
-        <v>3000</v>
-      </c>
-      <c r="I24" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="6">
@@ -1785,9 +2217,16 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="G25" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="6">
@@ -1799,9 +2238,16 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="G26" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="6">
@@ -1812,8 +2258,8 @@
       <c r="E27" s="6"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="6">
@@ -1824,8 +2270,8 @@
       <c r="E28" s="6"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="6">
@@ -1838,8 +2284,8 @@
       <c r="E29" s="6"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="6">
@@ -1852,8 +2298,8 @@
       <c r="E30" s="6"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
         <v>127</v>
       </c>
       <c r="B31" s="7">
@@ -1863,10 +2309,23 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="S5:W5">
+    <sortState ref="S6:W19">
+      <sortCondition sortBy="cellColor" ref="S6:S19" dxfId="3"/>
+      <sortCondition sortBy="cellColor" ref="S6:S19" dxfId="2"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
